--- a/permit_automation/output/final_output.xlsx
+++ b/permit_automation/output/final_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TNR050216_0</t>
+          <t>manual_input</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -487,101 +487,28 @@
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>(Individual Responsible For A Facility) Title Or Position: . .</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>amazon-eap-northamerica@amazon.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Ba
 Leitor</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>amazon-eap-northamerica@amazon.com</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TNR050125_0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>or Operator: (the person or legal entity which controls facility's operation; this may or may not be the same as the facility name or the official contact name) | &lt;</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ba
-Leitor</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>amazon-eap-northamerica@amazon.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TNR050127_0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>or Operator: (the person or legal entity which controls facility's operation; this may or may not be the same as the facility name or the official contact name) | &lt;</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ba
-Leitor</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>amazon-eap-northamerica@amazon.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TNR050129_0</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>or Operator: (the person or legal entity which controls facility's operation; this may or may not be the same as the facility name or the official contact name) | &lt;</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ba
-Leitor</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>amazon-eap-northamerica@amazon.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
